--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99195BF9-F848-8B42-9BB5-A039795F14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA61C0-16D2-E348-B540-A37F0A6B9ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8320" yWindow="5780" windowWidth="38340" windowHeight="16880" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1874,7 +1874,7 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA61C0-16D2-E348-B540-A37F0A6B9ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05B01B-019D-7F49-B45B-CED05AF713B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8320" yWindow="5780" windowWidth="38340" windowHeight="16880" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -284,7 +284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +327,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1044,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1085,9 +1091,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1176,12 +1179,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,15 +1367,6 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1535,6 +1523,54 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1874,7 +1910,7 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,211 +1958,211 @@
   <sheetData>
     <row r="1" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="96" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="97" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="100" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="101" t="s">
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="100" t="s">
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="102"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99"/>
       <c r="AL2" s="5"/>
     </row>
     <row r="3" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="144" t="s">
+      <c r="H3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="145" t="s">
+      <c r="O3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="103" t="s">
+      <c r="Q3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="136" t="s">
+      <c r="S3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="144" t="s">
+      <c r="T3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="145" t="s">
+      <c r="U3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="103" t="s">
+      <c r="V3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="103" t="s">
+      <c r="W3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="104" t="s">
+      <c r="X3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="105" t="s">
+      <c r="Y3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="145" t="s">
+      <c r="Z3" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="145" t="s">
+      <c r="AA3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="106" t="s">
+      <c r="AB3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="106" t="s">
+      <c r="AC3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="107" t="s">
+      <c r="AD3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="128" t="s">
+      <c r="AE3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="144" t="s">
+      <c r="AF3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="145" t="s">
+      <c r="AG3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="106" t="s">
+      <c r="AH3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="106" t="s">
+      <c r="AI3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="107" t="s">
+      <c r="AJ3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="108" t="s">
+      <c r="AK3" s="105" t="s">
         <v>9</v>
       </c>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="146"/>
+      <c r="AM3" s="140"/>
       <c r="AO3" s="6"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="44" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="147" t="s">
+      <c r="O4" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="161">
         <v>1.3</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="130" t="s">
+      <c r="Q4" s="161"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="147" t="s">
+      <c r="U4" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="161">
         <v>3.1</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="9" t="s">
+      <c r="W4" s="161"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="137" t="s">
+      <c r="Z4" s="131" t="s">
         <v>27</v>
       </c>
       <c r="AA4" s="11" t="s">
@@ -2137,73 +2173,73 @@
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="129" t="s">
+      <c r="AE4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AG4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17">
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16">
         <v>2</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AJ4" s="17">
         <v>1800</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AK4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="146"/>
+      <c r="AM4" s="140"/>
       <c r="AO4" s="6"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="44" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="147" t="s">
+      <c r="O5" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="161">
         <v>3.6</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="130" t="s">
+      <c r="Q5" s="161"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="147" t="s">
+      <c r="U5" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="161">
         <v>3.6</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="9" t="s">
+      <c r="W5" s="161"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="137" t="s">
+      <c r="Z5" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="19" t="s">
         <v>54</v>
       </c>
       <c r="AB5" s="7">
@@ -2211,59 +2247,59 @@
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="130" t="s">
+      <c r="AE5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21">
         <v>3.6</v>
       </c>
-      <c r="AJ5" s="148">
+      <c r="AJ5" s="142">
         <v>407</v>
       </c>
-      <c r="AK5" s="23" t="s">
+      <c r="AK5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM5" s="146"/>
+      <c r="AM5" s="140"/>
       <c r="AO5" s="6"/>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="44" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="147" t="s">
+      <c r="O6" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="161">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="130" t="s">
+      <c r="Q6" s="161"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="163" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="147" t="s">
+      <c r="U6" s="141" t="s">
         <v>62</v>
       </c>
       <c r="V6" s="7">
@@ -2274,858 +2310,858 @@
       <c r="Y6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="22">
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="21">
         <v>3.6</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AD6" s="24">
         <f>35 + 372</f>
         <v>407</v>
       </c>
-      <c r="AE6" s="131" t="s">
+      <c r="AE6" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AG6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="22">
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21">
         <v>3.6</v>
       </c>
-      <c r="AJ6" s="148">
+      <c r="AJ6" s="142">
         <v>407</v>
       </c>
-      <c r="AK6" s="23" t="s">
+      <c r="AK6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" s="146"/>
+      <c r="AM6" s="140"/>
       <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="44" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="147" t="s">
+      <c r="O7" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="161">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="130" t="s">
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22">
+      <c r="V7" s="21"/>
+      <c r="W7" s="21">
         <v>3.6</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="24">
         <f>35 + 372</f>
         <v>407</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="15" t="s">
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="21" t="s">
+      <c r="AG7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22">
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21">
         <v>3.6</v>
       </c>
-      <c r="AJ7" s="148">
+      <c r="AJ7" s="142">
         <v>407</v>
       </c>
-      <c r="AK7" s="23" t="s">
+      <c r="AK7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM7" s="146"/>
+      <c r="AM7" s="140"/>
       <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="26" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22">
+      <c r="V8" s="21"/>
+      <c r="W8" s="21">
         <v>3.6</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="24">
         <f>35 + 372</f>
         <v>407</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="15" t="s">
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="22">
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="21">
         <v>3.6</v>
       </c>
-      <c r="AJ8" s="148">
+      <c r="AJ8" s="142">
         <v>407</v>
       </c>
-      <c r="AK8" s="23" t="s">
+      <c r="AK8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM8" s="27"/>
+      <c r="AM8" s="26"/>
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="26" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22">
+      <c r="V9" s="21"/>
+      <c r="W9" s="21">
         <v>3.6</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="24">
         <f>35 + 372</f>
         <v>407</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="132"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="86"/>
-      <c r="AM9" s="27"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
+      <c r="AM9" s="26"/>
     </row>
     <row r="10" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="28" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="U10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30">
+      <c r="V10" s="29"/>
+      <c r="W10" s="29">
         <v>3.6</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="30">
         <f>35 + 372</f>
         <v>407</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="Y10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73" t="s">
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AM10" s="72" t="s">
+      <c r="AM10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AN10" s="73" t="s">
+      <c r="AN10" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <f>SUM(E4:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46">
         <f>SUM(J4:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="46">
         <f>SUM(K4:K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46">
         <f>SUM(P4:P10)</f>
         <v>5.8000000000000007</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="46">
         <f>SUM(Q4:Q10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="49">
+      <c r="R11" s="47"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="46">
         <f>SUM(V4:V10)</f>
         <v>10.3</v>
       </c>
-      <c r="W11" s="49">
+      <c r="W11" s="46">
         <f>SUM(W4:W10)</f>
         <v>14.4</v>
       </c>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="49">
+      <c r="X11" s="47"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="46">
         <f>SUM(AB4:AB10)</f>
         <v>6.7</v>
       </c>
-      <c r="AC11" s="49">
+      <c r="AC11" s="46">
         <f>SUM(AC4:AC10)</f>
         <v>3.6</v>
       </c>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="49">
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="46">
         <f>SUM(AH4:AH10)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="49">
+      <c r="AI11" s="46">
         <f>SUM(AI4:AI10)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="133">
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="127">
         <f>AH11+AB11+V11+P11+J11+D11</f>
         <v>22.8</v>
       </c>
-      <c r="AM11" s="56">
+      <c r="AM11" s="53">
         <f>AI11+AC11+W11+Q11+K11+E11</f>
         <v>34.4</v>
       </c>
-      <c r="AN11" s="57">
+      <c r="AN11" s="54">
         <f>SUM(AL11:AM11)</f>
         <v>57.2</v>
       </c>
     </row>
     <row r="12" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57">
         <f>SUM(D11:E11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60">
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57">
         <f>SUM(J11:K11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60">
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57">
         <f>SUM(P11:Q11)</f>
         <v>5.8000000000000007</v>
       </c>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="60">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="57">
         <f>SUM(V11:W11)</f>
         <v>24.700000000000003</v>
       </c>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="60">
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="57">
         <f>SUM(AB11:AC11)</f>
         <v>10.3</v>
       </c>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="60">
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="57">
         <f>SUM(AH11:AI11)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="154"/>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="156"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="148"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="150"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>0.2</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="168">
         <v>2</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14" t="s">
+      <c r="K13" s="168"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="149" t="s">
+      <c r="O13" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="34">
         <v>6</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="42" t="s">
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="38" t="s">
+      <c r="T13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="149" t="s">
+      <c r="U13" s="143" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="12">
         <v>24</v>
       </c>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37" t="s">
+      <c r="W13" s="34"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="143" t="s">
+      <c r="Z13" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="150" t="s">
+      <c r="AA13" s="144" t="s">
         <v>46</v>
       </c>
       <c r="AB13" s="12">
         <v>10</v>
       </c>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="42" t="s">
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AF13" s="39" t="s">
+      <c r="AF13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AG13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="17">
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="16">
         <v>16</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AJ13" s="17">
         <v>479</v>
       </c>
-      <c r="AK13" s="134" t="s">
+      <c r="AK13" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="158"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="152"/>
     </row>
     <row r="14" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="110" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="172">
         <v>2</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="111" t="s">
+      <c r="K14" s="172"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="159"/>
-      <c r="AM14" s="160"/>
-      <c r="AN14" s="161"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="153"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="155"/>
     </row>
     <row r="15" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="68">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="65">
         <f>SUM(D13:D14)</f>
         <v>0.2</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <f>SUM(E13:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="68">
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="65">
         <f>SUM(J13:J14)</f>
         <v>4</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="65">
         <f>SUM(K13:K14)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="68">
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="65">
         <f>SUM(P13:P14)</f>
         <v>6</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="65">
         <f>SUM(Q13:Q14)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="62"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="68">
+      <c r="R15" s="59"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="65">
         <f>SUM(V13:V14)</f>
         <v>24</v>
       </c>
-      <c r="W15" s="68">
+      <c r="W15" s="65">
         <f>SUM(W13:W14)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="68">
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="65">
         <f>SUM(AB13:AB14)</f>
         <v>10</v>
       </c>
-      <c r="AC15" s="68">
+      <c r="AC15" s="65">
         <f>SUM(AC13:AC14)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="68">
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="65">
         <f>SUM(AH13:AH14)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="68">
+      <c r="AI15" s="65">
         <f>SUM(AI13:AI14)</f>
         <v>16</v>
       </c>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="133">
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="127">
         <f>AH15+AB15+V15+P15+J15+D15</f>
         <v>44.2</v>
       </c>
-      <c r="AM15" s="56">
+      <c r="AM15" s="53">
         <f>AI15+AC15+W15+Q15+K15+E15</f>
         <v>16</v>
       </c>
-      <c r="AN15" s="57">
+      <c r="AN15" s="54">
         <f>SUM(AL15:AM15)</f>
         <v>60.2</v>
       </c>
     </row>
     <row r="16" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="60">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="57">
         <f>SUM(D15:E15)</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="60">
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="57">
         <f>SUM(J15:K15)</f>
         <v>4</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="60">
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="57">
         <f>SUM(P15:Q15)</f>
         <v>6</v>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="60">
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="57">
         <f>SUM(V15:W15)</f>
         <v>24</v>
       </c>
-      <c r="W16" s="61"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="60">
+      <c r="W16" s="58"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="57">
         <f>SUM(AB15:AC15)</f>
         <v>10</v>
       </c>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="60">
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="57">
         <f>SUM(AH15:AI15)</f>
         <v>16</v>
       </c>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="163"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="162"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="157"/>
+      <c r="AM16" s="158"/>
+      <c r="AN16" s="156"/>
     </row>
     <row r="17" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="118"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114">
+      <c r="B17" s="112"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108">
         <f>D16+D12</f>
         <v>0.2</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114">
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108">
         <f>J16+J12</f>
         <v>4</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="114">
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="108">
         <f>P16+P12</f>
         <v>11.8</v>
       </c>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="114">
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="108">
         <f>V16+V12</f>
         <v>48.7</v>
       </c>
-      <c r="W17" s="115"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="114">
+      <c r="W17" s="109"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="108">
         <f>AB16+AB12</f>
         <v>20.3</v>
       </c>
-      <c r="AC17" s="115"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="114">
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="108">
         <f>AH16+AH12</f>
         <v>32.4</v>
       </c>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="124">
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="118">
         <f>SUM(AL11:AL16)</f>
         <v>67</v>
       </c>
-      <c r="AM17" s="123">
+      <c r="AM17" s="117">
         <f t="shared" ref="AM17:AN17" si="0">SUM(AM11:AM16)</f>
         <v>50.4</v>
       </c>
-      <c r="AN17" s="124">
+      <c r="AN17" s="118">
         <f t="shared" si="0"/>
         <v>117.4</v>
       </c>
     </row>
     <row r="18" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="126">
+      <c r="B18" s="66"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="120">
         <f>SUM(F4:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="126">
+      <c r="G18" s="119"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="120">
         <f>SUM(L4:L17)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="125"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="126">
+      <c r="M18" s="119"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="120">
         <f>SUM(R4:R17)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="151"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="126">
+      <c r="S18" s="145"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="120">
         <f>SUM(X4:X17)</f>
         <v>1628</v>
       </c>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="126">
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="120">
         <f>SUM(AD4:AD17)</f>
         <v>407</v>
       </c>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="126">
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="120">
         <f>SUM(AJ4:AJ17)</f>
         <v>3907</v>
       </c>
-      <c r="AK18" s="125"/>
-      <c r="AL18" s="126">
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="120">
         <v>0</v>
       </c>
-      <c r="AM18" s="126">
+      <c r="AM18" s="120">
         <f>SUM(B18:AK18)</f>
         <v>5942</v>
       </c>
-      <c r="AN18" s="127">
+      <c r="AN18" s="121">
         <f>SUM(AL18:AM18)</f>
         <v>5942</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="152"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="146"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -3145,18 +3181,18 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="152"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="146"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -3176,17 +3212,17 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -3206,17 +3242,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA3DBCE-E7B0-D04B-BB9B-DDE1EAC2AC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F391A8-BBD6-BB49-9829-1C0A1293705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="34760" windowHeight="27740" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
+    <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" activeTab="1" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Volumes" sheetId="1" r:id="rId1"/>
+    <sheet name="Drives" sheetId="1" r:id="rId1"/>
+    <sheet name="Partitions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Volumes!$B$5:$T$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drives!$B$5:$T$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>Total</t>
   </si>
@@ -83,9 +84,6 @@
     <t>/share/31</t>
   </si>
   <si>
-    <t>/share/33</t>
-  </si>
-  <si>
     <t>/share/34</t>
   </si>
   <si>
@@ -182,18 +180,9 @@
     <t>USB3 G1 / NVMe</t>
   </si>
   <si>
-    <t>backup_09</t>
-  </si>
-  <si>
-    <t>backup_10</t>
-  </si>
-  <si>
     <t>/share/13</t>
   </si>
   <si>
-    <t>/share/14</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -249,20 +238,78 @@
   </si>
   <si>
     <t>Metadata</t>
+  </si>
+  <si>
+    <t>macmini-mrg</t>
+  </si>
+  <si>
+    <t>macmini-may</t>
+  </si>
+  <si>
+    <t>macmini-max</t>
+  </si>
+  <si>
+    <t>macmini-mad</t>
+  </si>
+  <si>
+    <t>MACOS</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>SWAP</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/var</t>
+  </si>
+  <si>
+    <t>/tmp</t>
+  </si>
+  <si>
+    <t>/home</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>/share/xx</t>
+  </si>
+  <si>
+    <t>/share/21</t>
+  </si>
+  <si>
+    <t>/share/42</t>
+  </si>
+  <si>
+    <t>/share/22</t>
+  </si>
+  <si>
+    <t>Useable</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0\ &quot;TB&quot;"/>
     <numFmt numFmtId="166" formatCode="00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0\ &quot;GB&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +340,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -335,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -395,12 +455,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -533,6 +602,29 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -966,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
   <dimension ref="B2:BH57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1021,139 +1113,139 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
+      <c r="C2" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
     </row>
     <row r="3" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="46" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="59"/>
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="50" t="s">
+      <c r="C4" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="45" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="47" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>0</v>
@@ -1173,45 +1265,45 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16">
         <f>SUM(K7:K53)</f>
-        <v>23</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="L6" s="16">
         <f>SUM(L7:L53)</f>
-        <v>48.2</v>
+        <v>47.168750000000003</v>
       </c>
       <c r="M6" s="16">
         <f>L6-K6</f>
-        <v>25.200000000000003</v>
+        <v>22.96875</v>
       </c>
       <c r="N6" s="16">
         <f>SUM(N7:N53)</f>
-        <v>71.2</v>
+        <v>71.368750000000006</v>
       </c>
       <c r="O6" s="16">
         <f>K6+SUM(I7:I53)</f>
-        <v>48.4</v>
+        <v>44.2</v>
       </c>
       <c r="P6" s="16">
         <f>L6+SUM(J7:J53)</f>
-        <v>56.2</v>
+        <v>55.168750000000003</v>
       </c>
       <c r="Q6" s="16">
         <f>P6-O6</f>
-        <v>7.8000000000000043</v>
+        <v>10.96875</v>
       </c>
       <c r="R6" s="16">
         <f>O6+P6</f>
-        <v>104.6</v>
+        <v>99.368750000000006</v>
       </c>
       <c r="S6" s="44"/>
       <c r="T6" s="8">
         <f>SUM(S7:S53)</f>
-        <v>6898</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="28">
         <v>200</v>
@@ -1242,19 +1334,19 @@
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="29">
         <v>201</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -1291,7 +1383,7 @@
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="28">
         <v>202</v>
@@ -1323,7 +1415,7 @@
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="27">
         <v>203</v>
@@ -1382,7 +1474,7 @@
     </row>
     <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="28">
         <v>300</v>
@@ -1412,23 +1504,24 @@
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="29">
         <v>301</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
-        <v>2</v>
+        <f>2/1.024</f>
+        <v>1.953125</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1442,12 +1535,12 @@
       </c>
       <c r="P12" s="11">
         <f>H12+J12</f>
-        <v>2</v>
+        <v>1.953125</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11">
         <f>O12+P12</f>
-        <v>2</v>
+        <v>1.953125</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -1459,19 +1552,19 @@
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="29">
         <v>302</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
@@ -1506,7 +1599,7 @@
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="28">
         <v>303</v>
@@ -1536,7 +1629,7 @@
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="27">
         <v>304</v>
@@ -1554,15 +1647,15 @@
       </c>
       <c r="L15" s="16">
         <f>SUM(H12:H14)</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="M15" s="16">
         <f>L15-K15</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="N15" s="16">
         <f>K15+L15</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="O15" s="16">
         <f>SUM(G11:G11)+SUM(I11:I11)</f>
@@ -1570,15 +1663,15 @@
       </c>
       <c r="P15" s="16">
         <f>SUM(H12:H14)+SUM(J12:J14)</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="Q15" s="16">
         <f>P15-O15</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="R15" s="16">
         <f>O15+P15</f>
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19">
@@ -1593,7 +1686,7 @@
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="29">
         <v>400</v>
@@ -1602,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>5</v>
@@ -1618,11 +1711,11 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11">
-        <f>G16+I16</f>
+        <f t="shared" ref="O16:P18" si="0">G16+I16</f>
         <v>1.3</v>
       </c>
       <c r="P16" s="11">
-        <f>H16+J16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="11"/>
@@ -1640,7 +1733,7 @@
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="29">
         <v>401</v>
@@ -1649,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>4</v>
@@ -1665,11 +1758,11 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11">
-        <f>G17+I17</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="P17" s="11">
-        <f>H17+J17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="11"/>
@@ -1686,29 +1779,46 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="28">
-        <v>402</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="B18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="29">
+        <v>401</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11">
+        <f>O18+P18</f>
+        <v>0.4</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -1716,94 +1826,77 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="28">
+        <v>402</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="29">
         <v>403</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <v>6</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11">
-        <f>G19+I19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <f>H19+J19</f>
-        <v>6</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11">
-        <f>O19+P19</f>
-        <v>6</v>
-      </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-    </row>
-    <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="28">
-        <v>404</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="E20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <f>6/1.024</f>
+        <v>5.859375</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11">
+        <f>G20+I20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <f>H20+J20</f>
+        <v>5.859375</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11">
+        <f>O20+P20</f>
+        <v>5.859375</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -1829,56 +1922,29 @@
       <c r="BD20" s="1"/>
     </row>
     <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="27">
-        <v>405</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="16">
-        <f>SUM(G16:G18)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L21" s="16">
-        <f>SUM(H19:H20)</f>
-        <v>6</v>
-      </c>
-      <c r="M21" s="16">
-        <f>L21-K21</f>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="N21" s="16">
-        <f>K21+L21</f>
-        <v>10.9</v>
-      </c>
-      <c r="O21" s="16">
-        <f>SUM(G16:G18)+SUM(I16:I18)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P21" s="16">
-        <f>SUM(H19:H20)+SUM(J19:J20)</f>
-        <v>6</v>
-      </c>
-      <c r="Q21" s="16">
-        <f>P21-O21</f>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="R21" s="16">
-        <f t="shared" ref="R21:R26" si="0">O21+P21</f>
-        <v>10.9</v>
-      </c>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19">
-        <f>SUM(S16:S20)</f>
-        <v>0</v>
-      </c>
+      <c r="B21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="28">
+        <v>404</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -1904,46 +1970,56 @@
       <c r="BD21" s="1"/>
     </row>
     <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="30">
-        <v>500</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11">
-        <f t="shared" ref="O22:P26" si="1">G22+I22</f>
-        <v>3.1</v>
-      </c>
-      <c r="P22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
+      <c r="B22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="27">
+        <v>405</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="16">
+        <f>SUM(G16:G19)</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="L22" s="16">
+        <f>SUM(H20:H21)</f>
+        <v>5.859375</v>
+      </c>
+      <c r="M22" s="16">
+        <f>L22-K22</f>
+        <v>0.55937499999999929</v>
+      </c>
+      <c r="N22" s="16">
+        <f>K22+L22</f>
+        <v>11.159375000000001</v>
+      </c>
+      <c r="O22" s="16">
+        <f>SUM(G16:G19)+SUM(I16:I19)</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="P22" s="16">
+        <f>SUM(H20:H21)+SUM(J20:J21)</f>
+        <v>5.859375</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>P22-O22</f>
+        <v>0.55937499999999929</v>
+      </c>
+      <c r="R22" s="16">
+        <f>O22+P22</f>
+        <v>11.159375000000001</v>
+      </c>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19">
+        <f>SUM(S16:S21)</f>
+        <v>0</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -1970,22 +2046,22 @@
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="30">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="11">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1995,8 +2071,8 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
+        <f t="shared" ref="O23:P26" si="1">G23+I23</f>
+        <v>3.1</v>
       </c>
       <c r="P23" s="11">
         <f t="shared" si="1"/>
@@ -2004,8 +2080,8 @@
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f>O23+P23</f>
+        <v>3.1</v>
       </c>
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
@@ -2035,22 +2111,22 @@
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="30">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G24" s="11">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2061,7 +2137,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="1"/>
@@ -2069,8 +2145,8 @@
       </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="11">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f>O24+P24</f>
+        <v>3.6</v>
       </c>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
@@ -2099,65 +2175,65 @@
       <c r="BD24" s="1"/>
     </row>
     <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="31">
         <v>503</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11">
+      <c r="D25" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13">
+        <f>O25+P25</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="20">
+        <v>80</v>
+      </c>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="31">
         <v>504</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -2166,7 +2242,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="1"/>
@@ -2174,8 +2250,8 @@
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>O26+P26</f>
+        <v>1.8</v>
       </c>
       <c r="S26" s="20">
         <v>171</v>
@@ -2184,7 +2260,7 @@
     </row>
     <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="32">
         <v>505</v>
@@ -2209,7 +2285,7 @@
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="30">
         <v>506</v>
@@ -2218,14 +2294,15 @@
         <v>11</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11">
-        <v>10</v>
+        <f>10/1.024</f>
+        <v>9.765625</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2239,19 +2316,19 @@
       </c>
       <c r="P28" s="11">
         <f>H28+J28</f>
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11">
         <f>O28+P28</f>
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="32">
         <v>507</v>
@@ -2276,7 +2353,7 @@
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="33">
         <v>508</v>
@@ -2289,61 +2366,84 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="16">
-        <f>SUM(G22:G27)</f>
-        <v>7.6000000000000005</v>
+        <f>SUM(G23:G27)</f>
+        <v>6.7</v>
       </c>
       <c r="L30" s="16">
         <f>SUM(H28:H29)</f>
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="M30" s="16">
         <f>L30-K30</f>
-        <v>2.3999999999999995</v>
+        <v>3.0656249999999998</v>
       </c>
       <c r="N30" s="16">
         <f>K30+L30</f>
-        <v>17.600000000000001</v>
+        <v>16.465624999999999</v>
       </c>
       <c r="O30" s="16">
-        <f>SUM(G22:G27)+SUM(I22:I27)</f>
-        <v>9.6000000000000014</v>
+        <f>SUM(G23:G27)+SUM(I23:I27)</f>
+        <v>9.5</v>
       </c>
       <c r="P30" s="16">
         <f>SUM(H28:H29)+SUM(J28:J29)</f>
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="Q30" s="16">
         <f>P30-O30</f>
-        <v>0.39999999999999858</v>
+        <v>0.265625</v>
       </c>
       <c r="R30" s="16">
         <f>O30+P30</f>
-        <v>19.600000000000001</v>
+        <v>19.265625</v>
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="19">
-        <f>SUM(S22:S29)</f>
-        <v>171</v>
-      </c>
+        <f>SUM(S23:S29)</f>
+        <v>251</v>
+      </c>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="56"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="30">
         <v>600</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="11">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -2353,149 +2453,242 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11">
-        <f>G31+I31</f>
-        <v>3.1</v>
+        <f t="shared" ref="O31:P33" si="2">G31+I31</f>
+        <v>1.3</v>
       </c>
       <c r="P31" s="11">
-        <f>H31+J31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11">
         <f>O31+P31</f>
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="56"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="32">
-        <v>601</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B32" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="30">
         <v>602</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11">
-        <f t="shared" ref="O33:P36" si="2">G33+I33</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="11">
+      <c r="D32" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11">
+        <f>O32+P32</f>
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="56"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="55"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+    </row>
+    <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="31">
+        <v>604</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13">
         <f>O33+P33</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-    </row>
-    <row r="34" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="30">
-        <v>603</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11">
-        <f>O34+P34</f>
-        <v>1</v>
-      </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-    </row>
-    <row r="35" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8</v>
+      </c>
+      <c r="S33" s="20">
+        <v>171</v>
+      </c>
+      <c r="T33" s="20"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="56"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+    </row>
+    <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="32">
+        <v>606</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="56"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+    </row>
+    <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C35" s="30">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11">
-        <v>1</v>
+        <f>2/1.024</f>
+        <v>1.953125</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -2504,40 +2697,63 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11">
-        <f t="shared" si="2"/>
+        <f>G35+I35</f>
         <v>0</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>H35+J35</f>
+        <v>1.953125</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11">
         <f>O35+P35</f>
-        <v>1</v>
+        <v>1.953125</v>
       </c>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="56"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="55"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+    </row>
+    <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C36" s="30">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -2546,27 +2762,50 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11">
-        <f t="shared" si="2"/>
+        <f>G36+I36</f>
         <v>0</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>H36+J36</f>
+        <v>2</v>
       </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11">
         <f>O36+P36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
-    </row>
-    <row r="37" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="56"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="56"/>
+      <c r="AY36" s="56"/>
+      <c r="AZ36" s="56"/>
+      <c r="BA36" s="56"/>
+      <c r="BB36" s="56"/>
+      <c r="BC36" s="56"/>
+      <c r="BD36" s="56"/>
+    </row>
+    <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C37" s="32">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="35"/>
@@ -2585,13 +2824,36 @@
       <c r="R37" s="12"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
-    </row>
-    <row r="38" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="56"/>
+      <c r="AQ37" s="55"/>
+      <c r="AR37" s="56"/>
+      <c r="AS37" s="56"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
+      <c r="AW37" s="55"/>
+      <c r="AX37" s="56"/>
+      <c r="AY37" s="56"/>
+      <c r="AZ37" s="56"/>
+      <c r="BA37" s="56"/>
+      <c r="BB37" s="56"/>
+      <c r="BC37" s="56"/>
+      <c r="BD37" s="56"/>
+    </row>
+    <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="33">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2601,61 +2863,80 @@
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="16">
-        <f>SUM(G31:G32)</f>
-        <v>3.1</v>
+        <f>SUM(G31:G34)</f>
+        <v>1.8</v>
       </c>
       <c r="L38" s="16">
-        <f>SUM(H33:H37)</f>
-        <v>4</v>
+        <f>SUM(H35:H37)</f>
+        <v>3.953125</v>
       </c>
       <c r="M38" s="16">
         <f>L38-K38</f>
-        <v>0.89999999999999991</v>
+        <v>2.1531250000000002</v>
       </c>
       <c r="N38" s="16">
         <f>K38+L38</f>
-        <v>7.1</v>
+        <v>5.7531249999999998</v>
       </c>
       <c r="O38" s="16">
-        <f>SUM(G31:G32)+SUM(I31:I32)</f>
-        <v>3.1</v>
+        <f>SUM(G31:G34)+SUM(I31:I34)</f>
+        <v>3.6</v>
       </c>
       <c r="P38" s="16">
-        <f>SUM(H33:H37)+SUM(J33:J37)</f>
-        <v>4</v>
+        <f>SUM(H35:H37)+SUM(J35:J37)</f>
+        <v>3.953125</v>
       </c>
       <c r="Q38" s="16">
         <f>P38-O38</f>
-        <v>0.89999999999999991</v>
+        <v>0.35312499999999991</v>
       </c>
       <c r="R38" s="16">
-        <f t="shared" ref="R38:R43" si="3">O38+P38</f>
-        <v>7.1</v>
+        <f>O38+P38</f>
+        <v>7.5531249999999996</v>
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19">
         <f>SUM(S31:S37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="56"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="55"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="56"/>
+      <c r="BB38" s="56"/>
+      <c r="BC38" s="56"/>
+      <c r="BD38" s="56"/>
+    </row>
+    <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="30">
         <v>700</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>31</v>
-      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -2665,36 +2946,59 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11">
-        <f t="shared" ref="O39:P43" si="4">G39+I39</f>
-        <v>0.1</v>
+        <f t="shared" ref="O39:P42" si="3">G39+I39</f>
+        <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>O39+P39</f>
+        <v>0</v>
       </c>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="57"/>
+      <c r="AO39" s="56"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="57"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="56"/>
+      <c r="BA39" s="56"/>
+      <c r="BB39" s="56"/>
+      <c r="BC39" s="56"/>
+      <c r="BD39" s="56"/>
+    </row>
+    <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="30">
         <v>701</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G40" s="11">
         <v>3.7</v>
@@ -2707,36 +3011,59 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="11">
-        <f t="shared" si="3"/>
+        <f>O40+P40</f>
         <v>3.7</v>
       </c>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-    </row>
-    <row r="41" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="57"/>
+      <c r="AO40" s="56"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="56"/>
+      <c r="AS40" s="56"/>
+      <c r="AT40" s="57"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="56"/>
+      <c r="AY40" s="56"/>
+      <c r="AZ40" s="56"/>
+      <c r="BA40" s="56"/>
+      <c r="BB40" s="56"/>
+      <c r="BC40" s="56"/>
+      <c r="BD40" s="56"/>
+    </row>
+    <row r="41" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="30">
         <v>702</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G41" s="11">
         <v>3.6</v>
@@ -2749,77 +3076,122 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11">
-        <f t="shared" si="3"/>
+        <f>O41+P41</f>
         <v>3.6</v>
       </c>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
-    </row>
-    <row r="42" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="31">
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="56"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="57"/>
+      <c r="AO41" s="56"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="55"/>
+      <c r="AX41" s="56"/>
+      <c r="AY41" s="56"/>
+      <c r="AZ41" s="56"/>
+      <c r="BA41" s="56"/>
+      <c r="BB41" s="56"/>
+      <c r="BC41" s="56"/>
+      <c r="BD41" s="56"/>
+    </row>
+    <row r="42" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="30">
         <v>703</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="13">
-        <v>8</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="P42" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13">
+      <c r="D42" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S42" s="20">
-        <f>35+946</f>
-        <v>981</v>
-      </c>
-      <c r="T42" s="20"/>
-    </row>
-    <row r="43" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11">
+        <f>O42+P42</f>
+        <v>3.1</v>
+      </c>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="56"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="56"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="56"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="56"/>
+      <c r="AW42" s="55"/>
+      <c r="AX42" s="56"/>
+      <c r="AY42" s="56"/>
+      <c r="AZ42" s="56"/>
+      <c r="BA42" s="56"/>
+      <c r="BB42" s="56"/>
+      <c r="BC42" s="56"/>
+      <c r="BD42" s="56"/>
+    </row>
+    <row r="43" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="31">
         <v>704</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -2832,7 +3204,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O43:P43" si="4">G43+I43</f>
         <v>8</v>
       </c>
       <c r="P43" s="13">
@@ -2841,7 +3213,7 @@
       </c>
       <c r="Q43" s="13"/>
       <c r="R43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="R43" si="5">O43+P43</f>
         <v>8</v>
       </c>
       <c r="S43" s="20">
@@ -2849,10 +3221,33 @@
         <v>981</v>
       </c>
       <c r="T43" s="20"/>
-    </row>
-    <row r="44" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="56"/>
+      <c r="AQ43" s="55"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="57"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="56"/>
+      <c r="AY43" s="56"/>
+      <c r="AZ43" s="56"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="56"/>
+      <c r="BD43" s="56"/>
+    </row>
+    <row r="44" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="32">
         <v>705</v>
@@ -2874,10 +3269,33 @@
       <c r="R44" s="12"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
-    </row>
-    <row r="45" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="56"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="56"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="56"/>
+      <c r="BA44" s="56"/>
+      <c r="BB44" s="56"/>
+      <c r="BC44" s="56"/>
+      <c r="BD44" s="56"/>
+    </row>
+    <row r="45" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="30">
         <v>706</v>
@@ -2886,14 +3304,15 @@
         <v>11</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <v>24</v>
+        <f>24/1.024</f>
+        <v>23.4375</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -2907,19 +3326,19 @@
       </c>
       <c r="P45" s="11">
         <f>H45+J45</f>
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="Q45" s="11"/>
       <c r="R45" s="11">
         <f>O45+P45</f>
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="32">
         <v>707</v>
@@ -2942,9 +3361,9 @@
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
     </row>
-    <row r="47" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="33">
         <v>708</v>
@@ -2958,51 +3377,51 @@
       <c r="J47" s="23"/>
       <c r="K47" s="16">
         <f>SUM(G39:G44)</f>
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="L47" s="16">
         <f>SUM(H45:H46)</f>
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="M47" s="16">
         <f>L47-K47</f>
-        <v>16.600000000000001</v>
+        <v>13.0375</v>
       </c>
       <c r="N47" s="16">
         <f>K47+L47</f>
-        <v>31.4</v>
+        <v>33.837499999999999</v>
       </c>
       <c r="O47" s="16">
         <f>SUM(G39:G44)+SUM(I39:I44)</f>
-        <v>23.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="P47" s="16">
         <f>SUM(H45:H46)+SUM(J45:J46)</f>
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="Q47" s="16">
         <f>P47-O47</f>
-        <v>0.60000000000000142</v>
+        <v>5.0375000000000014</v>
       </c>
       <c r="R47" s="16">
         <f>O47+P47</f>
-        <v>47.4</v>
+        <v>41.837499999999999</v>
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="19">
         <f>SUM(S39:S46)</f>
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="48" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="31">
         <v>800</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="40" t="s">
@@ -3038,13 +3457,13 @@
     </row>
     <row r="49" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="31">
         <v>801</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="40" t="s">
@@ -3080,7 +3499,7 @@
     </row>
     <row r="50" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="32">
         <v>802</v>
@@ -3105,7 +3524,7 @@
     </row>
     <row r="51" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="31">
         <v>803</v>
@@ -3115,7 +3534,7 @@
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -3147,7 +3566,7 @@
     </row>
     <row r="52" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="32">
         <v>804</v>
@@ -3172,7 +3591,7 @@
     </row>
     <row r="53" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="33">
         <v>805</v>
@@ -3258,10 +3677,10 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E5:E1048576 E1">
+  <conditionalFormatting sqref="E1 E5:E1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
+  <conditionalFormatting sqref="M6 Q6:Q53">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>M6&lt;0</formula>
     </cfRule>
@@ -3276,9 +3695,9 @@
       <formula>M15&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="M22">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>M21&lt;0</formula>
+      <formula>M22&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
@@ -3301,12 +3720,289 @@
       <formula>M53&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q53">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>Q6&lt;0</formula>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787C8C9-1F85-584D-A8D1-A8A3C747C121}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="46" customWidth="1"/>
+    <col min="2" max="6" width="18.5" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="17.83203125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="47"/>
+      <c r="C2" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="50">
+        <f>0.525+1.1</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="49">
+        <v>0</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f>2.3+5+0.03+0.128</f>
+        <v>7.4580000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="49">
+        <v>25</v>
+      </c>
+      <c r="D7" s="49">
+        <v>25</v>
+      </c>
+      <c r="E7" s="50">
+        <v>25</v>
+      </c>
+      <c r="F7" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="49">
+        <v>30</v>
+      </c>
+      <c r="D8" s="49">
+        <v>30</v>
+      </c>
+      <c r="E8" s="50">
+        <v>30</v>
+      </c>
+      <c r="F8" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="49">
+        <v>20</v>
+      </c>
+      <c r="D9" s="49">
+        <v>20</v>
+      </c>
+      <c r="E9" s="50">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="49">
+        <v>412</v>
+      </c>
+      <c r="D10" s="49">
+        <v>412</v>
+      </c>
+      <c r="E10" s="50">
+        <v>330</v>
+      </c>
+      <c r="F10" s="50">
+        <f>390-25-30</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="49">
+        <f>1.3*1024</f>
+        <v>1331.2</v>
+      </c>
+      <c r="D11" s="49">
+        <f>3.1*1024</f>
+        <v>3174.4</v>
+      </c>
+      <c r="E11" s="50">
+        <v>1400</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="52">
+        <f>SUM(C7:C11)</f>
+        <v>1818.2</v>
+      </c>
+      <c r="D12" s="52">
+        <f t="shared" ref="D12:F12" si="0">SUM(D7:D11)</f>
+        <v>3661.4</v>
+      </c>
+      <c r="E12" s="52">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+      <c r="F12" s="52">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="52">
+        <f>SUM(C3:C11)</f>
+        <v>1819.7</v>
+      </c>
+      <c r="D13" s="52">
+        <f>SUM(D3:D11)</f>
+        <v>3662.9</v>
+      </c>
+      <c r="E13" s="52">
+        <f>SUM(E3:E11)</f>
+        <v>1787.5</v>
+      </c>
+      <c r="F13" s="52">
+        <f>SUM(F3:F11)</f>
+        <v>461.08299999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="52">
+        <f>1.8*1024</f>
+        <v>1843.2</v>
+      </c>
+      <c r="D14" s="52">
+        <f>3.6*1024</f>
+        <v>3686.4</v>
+      </c>
+      <c r="E14" s="52">
+        <f>1.8*1024</f>
+        <v>1843.2</v>
+      </c>
+      <c r="F14" s="52">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="52">
+        <f>C14-C13</f>
+        <v>23.5</v>
+      </c>
+      <c r="D15" s="52">
+        <f t="shared" ref="D15:F15" si="1">D14-D13</f>
+        <v>23.5</v>
+      </c>
+      <c r="E15" s="52">
+        <f t="shared" si="1"/>
+        <v>55.700000000000045</v>
+      </c>
+      <c r="F15" s="52">
+        <f t="shared" si="1"/>
+        <v>3.91700000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C15&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D14" formula="1"/>
+    <ignoredError sqref="E12:F12" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F391A8-BBD6-BB49-9829-1C0A1293705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A11E6-5A66-AF4A-A21D-C1929DCD97BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" activeTab="1" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
+    <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Drives" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +392,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -553,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,9 +617,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -649,6 +649,27 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
   <dimension ref="B2:BH57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1113,84 +1134,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
     </row>
     <row r="3" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="59" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="59"/>
+      <c r="T3" s="57"/>
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="62"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
@@ -1205,7 +1226,7 @@
       <c r="E5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -1244,15 +1265,15 @@
       <c r="R5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:60" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="27">
         <v>100</v>
       </c>
@@ -1295,22 +1316,22 @@
         <f>O6+P6</f>
         <v>99.368750000000006</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="43"/>
       <c r="T6" s="8">
         <f>SUM(S7:S53)</f>
         <v>6168</v>
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="28">
         <v>200</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1333,46 +1354,46 @@
       <c r="BE7" s="5"/>
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="65">
         <v>201</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67">
         <v>0.2</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11">
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67">
         <f>G8+I8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="67">
         <f>H8+J8</f>
         <v>0.2</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11">
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67">
         <f>O8+P8</f>
         <v>0.2</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1382,15 +1403,15 @@
       <c r="BH8" s="6"/>
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="28">
         <v>202</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1414,7 +1435,7 @@
       <c r="BH9" s="6"/>
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="27">
@@ -1473,15 +1494,15 @@
       <c r="BH10" s="6"/>
     </row>
     <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="28">
         <v>300</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1503,47 +1524,47 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="65">
         <v>301</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67">
         <f>2/1.024</f>
         <v>1.953125</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11">
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67">
         <f>G12+I12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="67">
         <f>H12+J12</f>
         <v>1.953125</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11">
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67">
         <f>O12+P12</f>
         <v>1.953125</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -1551,46 +1572,46 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="65">
         <v>302</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67">
         <v>2</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11">
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67">
         <f>G13+I13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="67">
         <f>H13+J13</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11">
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67">
         <f>O13+P13</f>
         <v>2</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -1598,15 +1619,15 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="28">
         <v>303</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1628,7 +1649,7 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="27">
@@ -1685,46 +1706,46 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="65">
         <v>400</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="67">
         <v>1.3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11">
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67">
         <f t="shared" ref="O16:P18" si="0">G16+I16</f>
         <v>1.3</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11">
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67">
         <f>O16+P16</f>
         <v>1.3</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -1732,46 +1753,46 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="65">
         <v>401</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="67">
         <v>3.6</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11">
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67">
         <f>O17+P17</f>
         <v>3.6</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
@@ -1779,46 +1800,46 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="65">
         <v>401</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="67">
         <v>0.4</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11">
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67">
         <f>O18+P18</f>
         <v>0.4</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -1826,15 +1847,15 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="28">
         <v>402</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1856,47 +1877,47 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="65">
         <v>403</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="G20" s="67"/>
+      <c r="H20" s="67">
         <f>6/1.024</f>
         <v>5.859375</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11">
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67">
         <f>G20+I20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="67">
         <f>H20+J20</f>
         <v>5.859375</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11">
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67">
         <f>O20+P20</f>
         <v>5.859375</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -1922,15 +1943,15 @@
       <c r="BD20" s="1"/>
     </row>
     <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="28">
         <v>404</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1970,7 +1991,7 @@
       <c r="BD21" s="1"/>
     </row>
     <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="27">
@@ -2045,46 +2066,46 @@
       <c r="BD22" s="1"/>
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="69">
         <v>500</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="67">
         <v>3.1</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11">
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67">
         <f t="shared" ref="O23:P26" si="1">G23+I23</f>
         <v>3.1</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11">
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67">
         <f>O23+P23</f>
         <v>3.1</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2110,46 +2131,46 @@
       <c r="BD23" s="1"/>
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="69">
         <v>501</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="67">
         <v>3.6</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11">
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11">
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67">
         <f>O24+P24</f>
         <v>3.6</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2175,17 +2196,17 @@
       <c r="BD24" s="1"/>
     </row>
     <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>503</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="13"/>
@@ -2217,17 +2238,17 @@
       <c r="T25" s="20"/>
     </row>
     <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>504</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="39" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="13"/>
@@ -2259,15 +2280,15 @@
       <c r="T26" s="20"/>
     </row>
     <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>505</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -2284,58 +2305,58 @@
       <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="69">
         <v>506</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="G28" s="67"/>
+      <c r="H28" s="67">
         <f>10/1.024</f>
         <v>9.765625</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11">
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67">
         <f>G28+I28</f>
         <v>0</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="67">
         <f>H28+J28</f>
         <v>9.765625</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11">
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67">
         <f>O28+P28</f>
         <v>9.765625</v>
       </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>507</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -2352,15 +2373,15 @@
       <c r="T29" s="17"/>
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>508</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -2402,172 +2423,172 @@
         <f>SUM(S23:S29)</f>
         <v>251</v>
       </c>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="56"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="55"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="54"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="54"/>
+      <c r="BD30" s="54"/>
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="69">
         <v>600</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="67">
         <v>1.3</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11">
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67">
         <f t="shared" ref="O31:P33" si="2">G31+I31</f>
         <v>1.3</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11">
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67">
         <f>O31+P31</f>
         <v>1.3</v>
       </c>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="56"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="55"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="54"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="54"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="54"/>
+      <c r="AV31" s="54"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="54"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="54"/>
+      <c r="BB31" s="54"/>
+      <c r="BC31" s="54"/>
+      <c r="BD31" s="54"/>
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="69">
         <v>602</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="67">
         <v>0.5</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11">
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11">
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67">
         <f>O32+P32</f>
         <v>0.5</v>
       </c>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="56"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="55"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="54"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="54"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="54"/>
+      <c r="AV32" s="54"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="54"/>
+      <c r="BD32" s="54"/>
     </row>
     <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>604</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="13"/>
@@ -2597,40 +2618,40 @@
         <v>171</v>
       </c>
       <c r="T33" s="20"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="56"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="55"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="54"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
     </row>
     <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>606</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -2645,171 +2666,171 @@
       <c r="R34" s="12"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="56"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="55"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="54"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="54"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="54"/>
+      <c r="BC34" s="54"/>
+      <c r="BD34" s="54"/>
     </row>
     <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="69">
         <v>608</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="G35" s="67"/>
+      <c r="H35" s="67">
         <f>2/1.024</f>
         <v>1.953125</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11">
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67">
         <f>G35+I35</f>
         <v>0</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="67">
         <f>H35+J35</f>
         <v>1.953125</v>
       </c>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11">
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67">
         <f>O35+P35</f>
         <v>1.953125</v>
       </c>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="56"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="55"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="54"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
     </row>
     <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="69">
         <v>610</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67">
         <v>2</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11">
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67">
         <f>G36+I36</f>
         <v>0</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="67">
         <f>H36+J36</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11">
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67">
         <f>O36+P36</f>
         <v>2</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="56"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
-      <c r="BB36" s="56"/>
-      <c r="BC36" s="56"/>
-      <c r="BD36" s="56"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="54"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="55"/>
+      <c r="AU36" s="54"/>
+      <c r="AV36" s="54"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
     </row>
     <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>612</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -2824,40 +2845,40 @@
       <c r="R37" s="12"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="57"/>
-      <c r="AO37" s="56"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="56"/>
-      <c r="AW37" s="55"/>
-      <c r="AX37" s="56"/>
-      <c r="AY37" s="56"/>
-      <c r="AZ37" s="56"/>
-      <c r="BA37" s="56"/>
-      <c r="BB37" s="56"/>
-      <c r="BC37" s="56"/>
-      <c r="BD37" s="56"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="54"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="55"/>
+      <c r="AO37" s="54"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="55"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="54"/>
+      <c r="AW37" s="53"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="54"/>
+      <c r="BD37" s="54"/>
     </row>
     <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="32">
         <v>614</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -2899,40 +2920,40 @@
         <f>SUM(S31:S37)</f>
         <v>171</v>
       </c>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="56"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="56"/>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="55"/>
-      <c r="AX38" s="56"/>
-      <c r="AY38" s="56"/>
-      <c r="AZ38" s="56"/>
-      <c r="BA38" s="56"/>
-      <c r="BB38" s="56"/>
-      <c r="BC38" s="56"/>
-      <c r="BD38" s="56"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="54"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="54"/>
+      <c r="AV38" s="54"/>
+      <c r="AW38" s="53"/>
+      <c r="AX38" s="54"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="54"/>
     </row>
     <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>700</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="11">
@@ -2960,44 +2981,44 @@
       </c>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="57"/>
-      <c r="AO39" s="56"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="57"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="56"/>
-      <c r="BA39" s="56"/>
-      <c r="BB39" s="56"/>
-      <c r="BC39" s="56"/>
-      <c r="BD39" s="56"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="54"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="54"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="54"/>
+      <c r="BD39" s="54"/>
     </row>
     <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <v>701</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="37" t="s">
         <v>62</v>
       </c>
       <c r="G40" s="11">
@@ -3025,172 +3046,172 @@
       </c>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="56"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="56"/>
-      <c r="AS40" s="56"/>
-      <c r="AT40" s="57"/>
-      <c r="AU40" s="56"/>
-      <c r="AV40" s="56"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="56"/>
-      <c r="AY40" s="56"/>
-      <c r="AZ40" s="56"/>
-      <c r="BA40" s="56"/>
-      <c r="BB40" s="56"/>
-      <c r="BC40" s="56"/>
-      <c r="BD40" s="56"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="54"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="54"/>
+      <c r="AQ40" s="53"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="54"/>
+      <c r="AW40" s="53"/>
+      <c r="AX40" s="54"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="54"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="54"/>
+      <c r="BD40" s="54"/>
     </row>
     <row r="41" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="69">
         <v>702</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="67">
         <v>3.6</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11">
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67">
         <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11">
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67">
         <f>O41+P41</f>
         <v>3.6</v>
       </c>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="56"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="56"/>
-      <c r="AM41" s="56"/>
-      <c r="AN41" s="57"/>
-      <c r="AO41" s="56"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="56"/>
-      <c r="AS41" s="56"/>
-      <c r="AT41" s="57"/>
-      <c r="AU41" s="56"/>
-      <c r="AV41" s="56"/>
-      <c r="AW41" s="55"/>
-      <c r="AX41" s="56"/>
-      <c r="AY41" s="56"/>
-      <c r="AZ41" s="56"/>
-      <c r="BA41" s="56"/>
-      <c r="BB41" s="56"/>
-      <c r="BC41" s="56"/>
-      <c r="BD41" s="56"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="54"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="54"/>
+      <c r="AW41" s="53"/>
+      <c r="AX41" s="54"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="54"/>
+      <c r="BD41" s="54"/>
     </row>
     <row r="42" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="69">
         <v>703</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="67">
         <v>3.1</v>
       </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11">
+      <c r="H42" s="70"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11">
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67">
         <f>O42+P42</f>
         <v>3.1</v>
       </c>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="56"/>
-      <c r="AM42" s="56"/>
-      <c r="AN42" s="57"/>
-      <c r="AO42" s="56"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="56"/>
-      <c r="AS42" s="56"/>
-      <c r="AT42" s="57"/>
-      <c r="AU42" s="56"/>
-      <c r="AV42" s="56"/>
-      <c r="AW42" s="55"/>
-      <c r="AX42" s="56"/>
-      <c r="AY42" s="56"/>
-      <c r="AZ42" s="56"/>
-      <c r="BA42" s="56"/>
-      <c r="BB42" s="56"/>
-      <c r="BC42" s="56"/>
-      <c r="BD42" s="56"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="54"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="54"/>
+      <c r="AV42" s="54"/>
+      <c r="AW42" s="53"/>
+      <c r="AX42" s="54"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="54"/>
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="54"/>
     </row>
     <row r="43" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>704</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="40" t="s">
+      <c r="E43" s="40"/>
+      <c r="F43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="G43" s="14"/>
@@ -3221,40 +3242,40 @@
         <v>981</v>
       </c>
       <c r="T43" s="20"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="57"/>
-      <c r="AO43" s="56"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="56"/>
-      <c r="AS43" s="56"/>
-      <c r="AT43" s="57"/>
-      <c r="AU43" s="56"/>
-      <c r="AV43" s="56"/>
-      <c r="AW43" s="55"/>
-      <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-      <c r="AZ43" s="56"/>
-      <c r="BA43" s="56"/>
-      <c r="BB43" s="56"/>
-      <c r="BC43" s="56"/>
-      <c r="BD43" s="56"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="54"/>
+      <c r="AH43" s="54"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="54"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="54"/>
+      <c r="AT43" s="55"/>
+      <c r="AU43" s="54"/>
+      <c r="AV43" s="54"/>
+      <c r="AW43" s="53"/>
+      <c r="AX43" s="54"/>
+      <c r="AY43" s="54"/>
+      <c r="AZ43" s="54"/>
+      <c r="BA43" s="54"/>
+      <c r="BB43" s="54"/>
+      <c r="BC43" s="54"/>
+      <c r="BD43" s="54"/>
     </row>
     <row r="44" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <v>705</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="12"/>
@@ -3269,83 +3290,83 @@
       <c r="R44" s="12"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="56"/>
-      <c r="AM44" s="56"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="56"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="56"/>
-      <c r="AS44" s="56"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="56"/>
-      <c r="AV44" s="56"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="56"/>
-      <c r="AY44" s="56"/>
-      <c r="AZ44" s="56"/>
-      <c r="BA44" s="56"/>
-      <c r="BB44" s="56"/>
-      <c r="BC44" s="56"/>
-      <c r="BD44" s="56"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="54"/>
+      <c r="AK44" s="53"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="54"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="54"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="54"/>
+      <c r="AV44" s="54"/>
+      <c r="AW44" s="53"/>
+      <c r="AX44" s="54"/>
+      <c r="AY44" s="54"/>
+      <c r="AZ44" s="54"/>
+      <c r="BA44" s="54"/>
+      <c r="BB44" s="54"/>
+      <c r="BC44" s="54"/>
+      <c r="BD44" s="54"/>
     </row>
     <row r="45" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="69">
         <v>706</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11">
+      <c r="G45" s="67"/>
+      <c r="H45" s="67">
         <f>24/1.024</f>
         <v>23.4375</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11">
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67">
         <f>G45+I45</f>
         <v>0</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="67">
         <f>H45+J45</f>
         <v>23.4375</v>
       </c>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11">
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67">
         <f>O45+P45</f>
         <v>23.4375</v>
       </c>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
     </row>
     <row r="46" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <v>707</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -3362,15 +3383,15 @@
       <c r="T46" s="17"/>
     </row>
     <row r="47" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="32">
         <v>708</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
@@ -3414,17 +3435,17 @@
       </c>
     </row>
     <row r="48" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>800</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="40" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="13"/>
@@ -3456,17 +3477,17 @@
       <c r="T48" s="20"/>
     </row>
     <row r="49" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>801</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="40" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="13"/>
@@ -3498,15 +3519,15 @@
       <c r="T49" s="20"/>
     </row>
     <row r="50" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="31">
         <v>802</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="12"/>
@@ -3523,17 +3544,17 @@
       <c r="T50" s="17"/>
     </row>
     <row r="51" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <v>803</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="40" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="39" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="13"/>
@@ -3565,15 +3586,15 @@
       <c r="T51" s="20"/>
     </row>
     <row r="52" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="31">
         <v>804</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -3590,15 +3611,15 @@
       <c r="T52" s="17"/>
     </row>
     <row r="53" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="32">
         <v>805</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
@@ -3728,266 +3749,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787C8C9-1F85-584D-A8D1-A8A3C747C121}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="46" customWidth="1"/>
-    <col min="2" max="6" width="18.5" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="17.83203125" style="46"/>
+    <col min="1" max="1" width="4.6640625" style="45" customWidth="1"/>
+    <col min="2" max="6" width="18.5" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="17.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
+      <c r="A1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="48">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>0.5</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>0.5</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>0.5</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="48">
         <f>0.525+1.1</f>
         <v>1.625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>1</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="49">
-        <v>0</v>
-      </c>
-      <c r="D6" s="49">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
+      <c r="C6" s="48">
+        <v>0</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
         <f>2.3+5+0.03+0.128</f>
         <v>7.4580000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>25</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>25</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>25</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>30</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>30</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>30</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="48">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>20</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>20</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>412</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>412</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>330</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f>390-25-30</f>
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <f>1.3*1024</f>
         <v>1331.2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <f>3.1*1024</f>
         <v>3174.4</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>1400</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <f>SUM(C7:C11)</f>
         <v>1818.2</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="51">
         <f t="shared" ref="D12:F12" si="0">SUM(D7:D11)</f>
         <v>3661.4</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <f t="shared" si="0"/>
         <v>1786</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <f>SUM(C3:C11)</f>
         <v>1819.7</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="51">
         <f>SUM(D3:D11)</f>
         <v>3662.9</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <f>SUM(E3:E11)</f>
         <v>1787.5</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="51">
         <f>SUM(F3:F11)</f>
         <v>461.08299999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52">
+      <c r="B14" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="51">
         <f>1.8*1024</f>
         <v>1843.2</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="51">
         <f>3.6*1024</f>
         <v>3686.4</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <f>1.8*1024</f>
         <v>1843.2</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <f>C14-C13</f>
         <v>23.5</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="51">
         <f t="shared" ref="D15:F15" si="1">D14-D13</f>
         <v>23.5</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <f t="shared" si="1"/>
         <v>55.700000000000045</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <f t="shared" si="1"/>
         <v>3.91700000000003</v>
       </c>

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A11E6-5A66-AF4A-A21D-C1929DCD97BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4077B1-B0C8-9840-8E64-4E4318DE1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -626,6 +626,24 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,25 +668,7 @@
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1080,7 @@
   <dimension ref="B2:BH57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1134,84 +1134,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="58" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="57" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="57"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="61" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="58" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="66"/>
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
@@ -1354,46 +1354,46 @@
       <c r="BE7" s="5"/>
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="57">
         <v>201</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59">
         <v>0.2</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59">
         <f>G8+I8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="59">
         <f>H8+J8</f>
         <v>0.2</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59">
         <f>O8+P8</f>
         <v>0.2</v>
       </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1524,47 +1524,47 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="57">
         <v>301</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67">
+      <c r="G12" s="59"/>
+      <c r="H12" s="59">
         <f>2/1.024</f>
         <v>1.953125</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67">
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59">
         <f>G12+I12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="59">
         <f>H12+J12</f>
         <v>1.953125</v>
       </c>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67">
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59">
         <f>O12+P12</f>
         <v>1.953125</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -1572,46 +1572,46 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="57">
         <v>302</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67">
+      <c r="G13" s="59"/>
+      <c r="H13" s="59">
         <v>2</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59">
         <f>G13+I13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="67">
+      <c r="P13" s="59">
         <f>H13+J13</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67">
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59">
         <f>O13+P13</f>
         <v>2</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -1706,46 +1706,46 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="57">
         <v>400</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="59">
         <v>1.3</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67">
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59">
         <f t="shared" ref="O16:P18" si="0">G16+I16</f>
         <v>1.3</v>
       </c>
-      <c r="P16" s="67">
+      <c r="P16" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67">
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59">
         <f>O16+P16</f>
         <v>1.3</v>
       </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -1753,46 +1753,46 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="57">
         <v>401</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="59">
         <v>3.6</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67">
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67">
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59">
         <f>O17+P17</f>
         <v>3.6</v>
       </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
@@ -1800,46 +1800,46 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="57">
         <v>401</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="59">
         <v>0.4</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="P18" s="67">
+      <c r="P18" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67">
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59">
         <f>O18+P18</f>
         <v>0.4</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -1877,47 +1877,47 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="57">
         <v>403</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67">
+      <c r="G20" s="59"/>
+      <c r="H20" s="59">
         <f>6/1.024</f>
         <v>5.859375</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67">
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59">
         <f>G20+I20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="59">
         <f>H20+J20</f>
         <v>5.859375</v>
       </c>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67">
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59">
         <f>O20+P20</f>
         <v>5.859375</v>
       </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -2066,46 +2066,46 @@
       <c r="BD22" s="1"/>
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="61">
         <v>500</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="59">
         <v>3.1</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67">
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59">
         <f t="shared" ref="O23:P26" si="1">G23+I23</f>
         <v>3.1</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67">
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59">
         <f>O23+P23</f>
         <v>3.1</v>
       </c>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2131,46 +2131,46 @@
       <c r="BD23" s="1"/>
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="61">
         <v>501</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="59">
         <v>3.6</v>
       </c>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67">
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="P24" s="67">
+      <c r="P24" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67">
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59">
         <f>O24+P24</f>
         <v>3.6</v>
       </c>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2305,47 +2305,47 @@
       <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="61">
         <v>506</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67">
+      <c r="G28" s="59"/>
+      <c r="H28" s="59">
         <f>10/1.024</f>
         <v>9.765625</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67">
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59">
         <f>G28+I28</f>
         <v>0</v>
       </c>
-      <c r="P28" s="67">
+      <c r="P28" s="59">
         <f>H28+J28</f>
         <v>9.765625</v>
       </c>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67">
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59">
         <f>O28+P28</f>
         <v>9.765625</v>
       </c>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
@@ -2448,46 +2448,46 @@
       <c r="BD30" s="54"/>
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="61">
         <v>600</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="59">
         <v>1.3</v>
       </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67">
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59">
         <f t="shared" ref="O31:P33" si="2">G31+I31</f>
         <v>1.3</v>
       </c>
-      <c r="P31" s="67">
+      <c r="P31" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67">
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59">
         <f>O31+P31</f>
         <v>1.3</v>
       </c>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
       <c r="AE31" s="53"/>
       <c r="AF31" s="54"/>
       <c r="AG31" s="54"/>
@@ -2513,46 +2513,46 @@
       <c r="BD31" s="54"/>
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="61">
         <v>602</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="59">
         <v>0.5</v>
       </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67">
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="P32" s="67">
+      <c r="P32" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67">
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59">
         <f>O32+P32</f>
         <v>0.5</v>
       </c>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
       <c r="AE32" s="53"/>
       <c r="AF32" s="54"/>
       <c r="AG32" s="54"/>
@@ -2691,47 +2691,47 @@
       <c r="BD34" s="54"/>
     </row>
     <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="61">
         <v>608</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59">
         <f>2/1.024</f>
         <v>1.953125</v>
       </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67">
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59">
         <f>G35+I35</f>
         <v>0</v>
       </c>
-      <c r="P35" s="67">
+      <c r="P35" s="59">
         <f>H35+J35</f>
         <v>1.953125</v>
       </c>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67">
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59">
         <f>O35+P35</f>
         <v>1.953125</v>
       </c>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
       <c r="AE35" s="53"/>
       <c r="AF35" s="54"/>
       <c r="AG35" s="54"/>
@@ -2757,46 +2757,46 @@
       <c r="BD35" s="54"/>
     </row>
     <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="61">
         <v>610</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67">
+      <c r="G36" s="59"/>
+      <c r="H36" s="59">
         <v>2</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67">
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59">
         <f>G36+I36</f>
         <v>0</v>
       </c>
-      <c r="P36" s="67">
+      <c r="P36" s="59">
         <f>H36+J36</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67">
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59">
         <f>O36+P36</f>
         <v>2</v>
       </c>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
       <c r="AE36" s="53"/>
       <c r="AF36" s="54"/>
       <c r="AG36" s="54"/>
@@ -3071,46 +3071,46 @@
       <c r="BD40" s="54"/>
     </row>
     <row r="41" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="29">
         <v>702</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="11">
         <v>3.6</v>
       </c>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11">
         <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="P41" s="67">
+      <c r="P41" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11">
         <f>O41+P41</f>
         <v>3.6</v>
       </c>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="AE41" s="53"/>
       <c r="AF41" s="54"/>
       <c r="AG41" s="54"/>
@@ -3136,46 +3136,46 @@
       <c r="BD41" s="54"/>
     </row>
     <row r="42" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C42" s="29">
         <v>703</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="11">
         <v>3.1</v>
       </c>
       <c r="H42" s="70"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67">
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="P42" s="67">
+      <c r="P42" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67">
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11">
         <f>O42+P42</f>
         <v>3.1</v>
       </c>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="AE42" s="53"/>
       <c r="AF42" s="54"/>
       <c r="AG42" s="54"/>
@@ -3315,47 +3315,47 @@
       <c r="BD44" s="54"/>
     </row>
     <row r="45" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="61">
         <v>706</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67">
+      <c r="G45" s="59"/>
+      <c r="H45" s="59">
         <f>24/1.024</f>
         <v>23.4375</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59">
         <f>G45+I45</f>
         <v>0</v>
       </c>
-      <c r="P45" s="67">
+      <c r="P45" s="59">
         <f>H45+J45</f>
         <v>23.4375</v>
       </c>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67">
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59">
         <f>O45+P45</f>
         <v>23.4375</v>
       </c>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
     </row>
     <row r="46" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4077B1-B0C8-9840-8E64-4E4318DE1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7698FA93-8A57-3E4F-918A-44767B048497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1080,7 +1080,7 @@
   <dimension ref="B2:BH57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16">
         <f>SUM(K7:K53)</f>
-        <v>24.200000000000003</v>
+        <v>24.700000000000003</v>
       </c>
       <c r="L6" s="16">
         <f>SUM(L7:L53)</f>
@@ -1294,15 +1294,15 @@
       </c>
       <c r="M6" s="16">
         <f>L6-K6</f>
-        <v>22.96875</v>
+        <v>22.46875</v>
       </c>
       <c r="N6" s="16">
         <f>SUM(N7:N53)</f>
-        <v>71.368750000000006</v>
+        <v>71.868750000000006</v>
       </c>
       <c r="O6" s="16">
         <f>K6+SUM(I7:I53)</f>
-        <v>44.2</v>
+        <v>44.7</v>
       </c>
       <c r="P6" s="16">
         <f>L6+SUM(J7:J53)</f>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="Q6" s="16">
         <f>P6-O6</f>
-        <v>10.96875</v>
+        <v>10.46875</v>
       </c>
       <c r="R6" s="16">
         <f>O6+P6</f>
-        <v>99.368750000000006</v>
+        <v>99.868750000000006</v>
       </c>
       <c r="S6" s="43"/>
       <c r="T6" s="8">
@@ -3152,7 +3152,7 @@
         <v>62</v>
       </c>
       <c r="G42" s="11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="11"/>
@@ -3163,7 +3163,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11">
         <f t="shared" si="3"/>
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" si="3"/>
@@ -3172,7 +3172,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11">
         <f>O42+P42</f>
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
@@ -3398,7 +3398,7 @@
       <c r="J47" s="23"/>
       <c r="K47" s="16">
         <f>SUM(G39:G44)</f>
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="L47" s="16">
         <f>SUM(H45:H46)</f>
@@ -3406,15 +3406,15 @@
       </c>
       <c r="M47" s="16">
         <f>L47-K47</f>
-        <v>13.0375</v>
+        <v>12.5375</v>
       </c>
       <c r="N47" s="16">
         <f>K47+L47</f>
-        <v>33.837499999999999</v>
+        <v>34.337499999999999</v>
       </c>
       <c r="O47" s="16">
         <f>SUM(G39:G44)+SUM(I39:I44)</f>
-        <v>18.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="P47" s="16">
         <f>SUM(H45:H46)+SUM(J45:J46)</f>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="Q47" s="16">
         <f>P47-O47</f>
-        <v>5.0375000000000014</v>
+        <v>4.5375000000000014</v>
       </c>
       <c r="R47" s="16">
         <f>O47+P47</f>
-        <v>41.837499999999999</v>
+        <v>42.337499999999999</v>
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="19">

--- a/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
+++ b/src/meg_may_max_jen_jil/_debian/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/meg_may_max_jen_jil/_debian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7698FA93-8A57-3E4F-918A-44767B048497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1713712C-055B-9E46-8928-57E6CCA84836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1080,7 +1080,7 @@
   <dimension ref="B2:BH57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
